--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>178.472104153374</v>
+        <v>183.29157</v>
       </c>
       <c r="H2">
-        <v>178.472104153374</v>
+        <v>549.8747100000001</v>
       </c>
       <c r="I2">
-        <v>0.2590788666347197</v>
+        <v>0.2513683001495071</v>
       </c>
       <c r="J2">
-        <v>0.2590788666347197</v>
+        <v>0.2647198423983431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N2">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O2">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P2">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q2">
-        <v>9590.521953244192</v>
+        <v>10267.1280042177</v>
       </c>
       <c r="R2">
-        <v>9590.521953244192</v>
+        <v>92404.15203795931</v>
       </c>
       <c r="S2">
-        <v>0.1269279798403021</v>
+        <v>0.1227586415330707</v>
       </c>
       <c r="T2">
-        <v>0.1269279798403021</v>
+        <v>0.1386380595879268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>178.472104153374</v>
+        <v>183.29157</v>
       </c>
       <c r="H3">
-        <v>178.472104153374</v>
+        <v>549.8747100000001</v>
       </c>
       <c r="I3">
-        <v>0.2590788666347197</v>
+        <v>0.2513683001495071</v>
       </c>
       <c r="J3">
-        <v>0.2590788666347197</v>
+        <v>0.2647198423983431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N3">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P3">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q3">
-        <v>1441.769687947661</v>
+        <v>1677.02328704988</v>
       </c>
       <c r="R3">
-        <v>1441.769687947661</v>
+        <v>15093.20958344892</v>
       </c>
       <c r="S3">
-        <v>0.01908143423041491</v>
+        <v>0.02005128410330501</v>
       </c>
       <c r="T3">
-        <v>0.01908143423041491</v>
+        <v>0.0226450137082982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>178.472104153374</v>
+        <v>183.29157</v>
       </c>
       <c r="H4">
-        <v>178.472104153374</v>
+        <v>549.8747100000001</v>
       </c>
       <c r="I4">
-        <v>0.2590788666347197</v>
+        <v>0.2513683001495071</v>
       </c>
       <c r="J4">
-        <v>0.2590788666347197</v>
+        <v>0.2647198423983431</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N4">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O4">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P4">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q4">
-        <v>1871.641065701151</v>
+        <v>2223.15170065065</v>
       </c>
       <c r="R4">
-        <v>1871.641065701151</v>
+        <v>20008.36530585585</v>
       </c>
       <c r="S4">
-        <v>0.02477066635306919</v>
+        <v>0.02658105388202998</v>
       </c>
       <c r="T4">
-        <v>0.02477066635306919</v>
+        <v>0.03001944047266116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>178.472104153374</v>
+        <v>183.29157</v>
       </c>
       <c r="H5">
-        <v>178.472104153374</v>
+        <v>549.8747100000001</v>
       </c>
       <c r="I5">
-        <v>0.2590788666347197</v>
+        <v>0.2513683001495071</v>
       </c>
       <c r="J5">
-        <v>0.2590788666347197</v>
+        <v>0.2647198423983431</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N5">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O5">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P5">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q5">
-        <v>2529.971138179521</v>
+        <v>2598.59038956363</v>
       </c>
       <c r="R5">
-        <v>2529.971138179521</v>
+        <v>23387.31350607267</v>
       </c>
       <c r="S5">
-        <v>0.03348348788407388</v>
+        <v>0.03106997653021179</v>
       </c>
       <c r="T5">
-        <v>0.03348348788407388</v>
+        <v>0.0350890267584997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>178.472104153374</v>
+        <v>183.29157</v>
       </c>
       <c r="H6">
-        <v>178.472104153374</v>
+        <v>549.8747100000001</v>
       </c>
       <c r="I6">
-        <v>0.2590788666347197</v>
+        <v>0.2513683001495071</v>
       </c>
       <c r="J6">
-        <v>0.2590788666347197</v>
+        <v>0.2647198423983431</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N6">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O6">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P6">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q6">
-        <v>4141.776483316052</v>
+        <v>4257.72240317424</v>
       </c>
       <c r="R6">
-        <v>4141.776483316052</v>
+        <v>25546.33441904544</v>
       </c>
       <c r="S6">
-        <v>0.05481529832685966</v>
+        <v>0.05090734410088964</v>
       </c>
       <c r="T6">
-        <v>0.05481529832685966</v>
+        <v>0.03832830187095718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>116.262945966689</v>
+        <v>127.586778</v>
       </c>
       <c r="H7">
-        <v>116.262945966689</v>
+        <v>382.7603340000001</v>
       </c>
       <c r="I7">
-        <v>0.1687729990944582</v>
+        <v>0.1749740673147845</v>
       </c>
       <c r="J7">
-        <v>0.1687729990944582</v>
+        <v>0.1842678949406805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N7">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O7">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P7">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q7">
-        <v>6247.600099364295</v>
+        <v>7146.808668678581</v>
       </c>
       <c r="R7">
-        <v>6247.600099364295</v>
+        <v>64321.27801810723</v>
       </c>
       <c r="S7">
-        <v>0.08268530777870056</v>
+        <v>0.08545062680657638</v>
       </c>
       <c r="T7">
-        <v>0.08268530777870056</v>
+        <v>0.09650407452451627</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>116.262945966689</v>
+        <v>127.586778</v>
       </c>
       <c r="H8">
-        <v>116.262945966689</v>
+        <v>382.7603340000001</v>
       </c>
       <c r="I8">
-        <v>0.1687729990944582</v>
+        <v>0.1749740673147845</v>
       </c>
       <c r="J8">
-        <v>0.1687729990944582</v>
+        <v>0.1842678949406805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N8">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P8">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q8">
-        <v>939.2190007588929</v>
+        <v>1167.353183922552</v>
       </c>
       <c r="R8">
-        <v>939.2190007588929</v>
+        <v>10506.17865530297</v>
       </c>
       <c r="S8">
-        <v>0.01243031098569428</v>
+        <v>0.01395742713919307</v>
       </c>
       <c r="T8">
-        <v>0.01243031098569428</v>
+        <v>0.01576288716828384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>116.262945966689</v>
+        <v>127.586778</v>
       </c>
       <c r="H9">
-        <v>116.262945966689</v>
+        <v>382.7603340000001</v>
       </c>
       <c r="I9">
-        <v>0.1687729990944582</v>
+        <v>0.1749740673147845</v>
       </c>
       <c r="J9">
-        <v>0.1687729990944582</v>
+        <v>0.1842678949406805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N9">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O9">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P9">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q9">
-        <v>1219.252191388115</v>
+        <v>1547.50577176701</v>
       </c>
       <c r="R9">
-        <v>1219.252191388115</v>
+        <v>13927.55194590309</v>
       </c>
       <c r="S9">
-        <v>0.01613647498261604</v>
+        <v>0.01850271139394244</v>
       </c>
       <c r="T9">
-        <v>0.01613647498261604</v>
+        <v>0.02089612570436074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>116.262945966689</v>
+        <v>127.586778</v>
       </c>
       <c r="H10">
-        <v>116.262945966689</v>
+        <v>382.7603340000001</v>
       </c>
       <c r="I10">
-        <v>0.1687729990944582</v>
+        <v>0.1749740673147845</v>
       </c>
       <c r="J10">
-        <v>0.1687729990944582</v>
+        <v>0.1842678949406805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N10">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O10">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P10">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q10">
-        <v>1648.111334433929</v>
+        <v>1808.843555359302</v>
       </c>
       <c r="R10">
-        <v>1648.111334433929</v>
+        <v>16279.59199823372</v>
       </c>
       <c r="S10">
-        <v>0.02181231045103231</v>
+        <v>0.02162738961767496</v>
       </c>
       <c r="T10">
-        <v>0.02181231045103231</v>
+        <v>0.02442499601739874</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>116.262945966689</v>
+        <v>127.586778</v>
       </c>
       <c r="H11">
-        <v>116.262945966689</v>
+        <v>382.7603340000001</v>
       </c>
       <c r="I11">
-        <v>0.1687729990944582</v>
+        <v>0.1749740673147845</v>
       </c>
       <c r="J11">
-        <v>0.1687729990944582</v>
+        <v>0.1842678949406805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N11">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O11">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P11">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q11">
-        <v>2698.0974857116</v>
+        <v>2963.742866294497</v>
       </c>
       <c r="R11">
-        <v>2698.0974857116</v>
+        <v>17782.45719776698</v>
       </c>
       <c r="S11">
-        <v>0.03570859489641502</v>
+        <v>0.03543591235739765</v>
       </c>
       <c r="T11">
-        <v>0.03570859489641502</v>
+        <v>0.02667981152612092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>131.905228650457</v>
+        <v>137.7814383333333</v>
       </c>
       <c r="H12">
-        <v>131.905228650457</v>
+        <v>413.3443150000001</v>
       </c>
       <c r="I12">
-        <v>0.1914801044346173</v>
+        <v>0.1889551491429973</v>
       </c>
       <c r="J12">
-        <v>0.1914801044346173</v>
+        <v>0.1989915883257317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N12">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O12">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P12">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q12">
-        <v>7088.166507146472</v>
+        <v>7717.865387772939</v>
       </c>
       <c r="R12">
-        <v>7088.166507146472</v>
+        <v>69460.78848995645</v>
       </c>
       <c r="S12">
-        <v>0.09380997821703066</v>
+        <v>0.0922784512035799</v>
       </c>
       <c r="T12">
-        <v>0.09380997821703066</v>
+        <v>0.1042151106991278</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>131.905228650457</v>
+        <v>137.7814383333333</v>
       </c>
       <c r="H13">
-        <v>131.905228650457</v>
+        <v>413.3443150000001</v>
       </c>
       <c r="I13">
-        <v>0.1914801044346173</v>
+        <v>0.1889551491429973</v>
       </c>
       <c r="J13">
-        <v>0.1914801044346173</v>
+        <v>0.1989915883257317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N13">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P13">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q13">
-        <v>1065.583673438407</v>
+        <v>1260.62906552782</v>
       </c>
       <c r="R13">
-        <v>1065.583673438407</v>
+        <v>11345.66158975038</v>
       </c>
       <c r="S13">
-        <v>0.01410271345811301</v>
+        <v>0.01507267772426013</v>
       </c>
       <c r="T13">
-        <v>0.01410271345811301</v>
+        <v>0.01702240075638709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>131.905228650457</v>
+        <v>137.7814383333333</v>
       </c>
       <c r="H14">
-        <v>131.905228650457</v>
+        <v>413.3443150000001</v>
       </c>
       <c r="I14">
-        <v>0.1914801044346173</v>
+        <v>0.1889551491429973</v>
       </c>
       <c r="J14">
-        <v>0.1914801044346173</v>
+        <v>0.1989915883257317</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N14">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O14">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P14">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q14">
-        <v>1383.293170067263</v>
+        <v>1671.157265709725</v>
       </c>
       <c r="R14">
-        <v>1383.293170067263</v>
+        <v>15040.41539138753</v>
       </c>
       <c r="S14">
-        <v>0.01830751323645445</v>
+        <v>0.01998114717595536</v>
       </c>
       <c r="T14">
-        <v>0.01830751323645445</v>
+        <v>0.02256580423357787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>131.905228650457</v>
+        <v>137.7814383333333</v>
       </c>
       <c r="H15">
-        <v>131.905228650457</v>
+        <v>413.3443150000001</v>
       </c>
       <c r="I15">
-        <v>0.1914801044346173</v>
+        <v>0.1889551491429973</v>
       </c>
       <c r="J15">
-        <v>0.1914801044346173</v>
+        <v>0.1989915883257317</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N15">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O15">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P15">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q15">
-        <v>1869.852003167061</v>
+        <v>1953.376914788029</v>
       </c>
       <c r="R15">
-        <v>1869.852003167061</v>
+        <v>17580.39223309226</v>
       </c>
       <c r="S15">
-        <v>0.02474698859138247</v>
+        <v>0.02335549886618075</v>
       </c>
       <c r="T15">
-        <v>0.02474698859138247</v>
+        <v>0.02637664447144465</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>131.905228650457</v>
+        <v>137.7814383333333</v>
       </c>
       <c r="H16">
-        <v>131.905228650457</v>
+        <v>413.3443150000001</v>
       </c>
       <c r="I16">
-        <v>0.1914801044346173</v>
+        <v>0.1889551491429973</v>
       </c>
       <c r="J16">
-        <v>0.1914801044346173</v>
+        <v>0.1989915883257317</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N16">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O16">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P16">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q16">
-        <v>3061.105692917675</v>
+        <v>3200.556996338693</v>
       </c>
       <c r="R16">
-        <v>3061.105692917675</v>
+        <v>19203.34197803216</v>
       </c>
       <c r="S16">
-        <v>0.04051291093163673</v>
+        <v>0.03826737417302119</v>
       </c>
       <c r="T16">
-        <v>0.04051291093163673</v>
+        <v>0.02881162816519424</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>168.577897400078</v>
+        <v>170.1844126666667</v>
       </c>
       <c r="H17">
-        <v>168.577897400078</v>
+        <v>510.553238</v>
       </c>
       <c r="I17">
-        <v>0.2447159504576872</v>
+        <v>0.2333929843252597</v>
       </c>
       <c r="J17">
-        <v>0.2447159504576872</v>
+        <v>0.245789759451428</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N17">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O17">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P17">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q17">
-        <v>9058.838822552372</v>
+        <v>9532.926959877504</v>
       </c>
       <c r="R17">
-        <v>9058.838822552372</v>
+        <v>85796.34263889753</v>
       </c>
       <c r="S17">
-        <v>0.1198912965374656</v>
+        <v>0.1139801863722565</v>
       </c>
       <c r="T17">
-        <v>0.1198912965374656</v>
+        <v>0.1287240692205193</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>168.577897400078</v>
+        <v>170.1844126666667</v>
       </c>
       <c r="H18">
-        <v>168.577897400078</v>
+        <v>510.553238</v>
       </c>
       <c r="I18">
-        <v>0.2447159504576872</v>
+        <v>0.2333929843252597</v>
       </c>
       <c r="J18">
-        <v>0.2447159504576872</v>
+        <v>0.245789759451428</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N18">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P18">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q18">
-        <v>1361.840292533966</v>
+        <v>1557.099560743064</v>
       </c>
       <c r="R18">
-        <v>1361.840292533966</v>
+        <v>14013.89604668758</v>
       </c>
       <c r="S18">
-        <v>0.01802359016945791</v>
+        <v>0.0186174192753842</v>
       </c>
       <c r="T18">
-        <v>0.01802359016945791</v>
+        <v>0.02102567159949224</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>168.577897400078</v>
+        <v>170.1844126666667</v>
       </c>
       <c r="H19">
-        <v>168.577897400078</v>
+        <v>510.553238</v>
       </c>
       <c r="I19">
-        <v>0.2447159504576872</v>
+        <v>0.2333929843252597</v>
       </c>
       <c r="J19">
-        <v>0.2447159504576872</v>
+        <v>0.245789759451428</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N19">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O19">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P19">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q19">
-        <v>1767.880291658322</v>
+        <v>2064.17439953257</v>
       </c>
       <c r="R19">
-        <v>1767.880291658322</v>
+        <v>18577.56959579313</v>
       </c>
       <c r="S19">
-        <v>0.02339742040252243</v>
+        <v>0.02468024603081468</v>
       </c>
       <c r="T19">
-        <v>0.02339742040252243</v>
+        <v>0.02787275402475849</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>168.577897400078</v>
+        <v>170.1844126666667</v>
       </c>
       <c r="H20">
-        <v>168.577897400078</v>
+        <v>510.553238</v>
       </c>
       <c r="I20">
-        <v>0.2447159504576872</v>
+        <v>0.2333929843252597</v>
       </c>
       <c r="J20">
-        <v>0.2447159504576872</v>
+        <v>0.245789759451428</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N20">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O20">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P20">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q20">
-        <v>2389.713602472384</v>
+        <v>2412.765514579481</v>
       </c>
       <c r="R20">
-        <v>2389.713602472384</v>
+        <v>21714.88963121533</v>
       </c>
       <c r="S20">
-        <v>0.03162721710428969</v>
+        <v>0.02884816637972609</v>
       </c>
       <c r="T20">
-        <v>0.03162721710428969</v>
+        <v>0.03257981482694607</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>168.577897400078</v>
+        <v>170.1844126666667</v>
       </c>
       <c r="H21">
-        <v>168.577897400078</v>
+        <v>510.553238</v>
       </c>
       <c r="I21">
-        <v>0.2447159504576872</v>
+        <v>0.2333929843252597</v>
       </c>
       <c r="J21">
-        <v>0.2447159504576872</v>
+        <v>0.245789759451428</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N21">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O21">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P21">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q21">
-        <v>3912.163048509167</v>
+        <v>3953.253204617739</v>
       </c>
       <c r="R21">
-        <v>3912.163048509167</v>
+        <v>23719.51922770643</v>
       </c>
       <c r="S21">
-        <v>0.05177642624395157</v>
+        <v>0.04726696626707819</v>
       </c>
       <c r="T21">
-        <v>0.05177642624395157</v>
+        <v>0.03558744977971191</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>93.65354259064419</v>
+        <v>110.331158</v>
       </c>
       <c r="H22">
-        <v>93.65354259064419</v>
+        <v>220.662316</v>
       </c>
       <c r="I22">
-        <v>0.1359520793785175</v>
+        <v>0.1513094990674513</v>
       </c>
       <c r="J22">
-        <v>0.1359520793785175</v>
+        <v>0.1062309148838167</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N22">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O22">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P22">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q22">
-        <v>5032.642834998945</v>
+        <v>6180.230340323713</v>
       </c>
       <c r="R22">
-        <v>5032.642834998945</v>
+        <v>37081.38204194228</v>
       </c>
       <c r="S22">
-        <v>0.06660567500062968</v>
+        <v>0.07389375886108991</v>
       </c>
       <c r="T22">
-        <v>0.06660567500062968</v>
+        <v>0.0556348469170694</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>93.65354259064419</v>
+        <v>110.331158</v>
       </c>
       <c r="H23">
-        <v>93.65354259064419</v>
+        <v>220.662316</v>
       </c>
       <c r="I23">
-        <v>0.1359520793785175</v>
+        <v>0.1513094990674513</v>
       </c>
       <c r="J23">
-        <v>0.1359520793785175</v>
+        <v>0.1062309148838167</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N23">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P23">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q23">
-        <v>756.5711152263198</v>
+        <v>1009.473164822472</v>
       </c>
       <c r="R23">
-        <v>756.5711152263198</v>
+        <v>6056.838988934831</v>
       </c>
       <c r="S23">
-        <v>0.01001301532172783</v>
+        <v>0.01206973891109468</v>
       </c>
       <c r="T23">
-        <v>0.01001301532172783</v>
+        <v>0.009087344953043627</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>93.65354259064419</v>
+        <v>110.331158</v>
       </c>
       <c r="H24">
-        <v>93.65354259064419</v>
+        <v>220.662316</v>
       </c>
       <c r="I24">
-        <v>0.1359520793785175</v>
+        <v>0.1513094990674513</v>
       </c>
       <c r="J24">
-        <v>0.1359520793785175</v>
+        <v>0.1062309148838167</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N24">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O24">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P24">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q24">
-        <v>982.1468575862459</v>
+        <v>1338.21158028411</v>
       </c>
       <c r="R24">
-        <v>982.1468575862459</v>
+        <v>8029.269481704659</v>
       </c>
       <c r="S24">
-        <v>0.01299844963054942</v>
+        <v>0.01600029098809488</v>
       </c>
       <c r="T24">
-        <v>0.01299844963054942</v>
+        <v>0.01204667015822849</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>93.65354259064419</v>
+        <v>110.331158</v>
       </c>
       <c r="H25">
-        <v>93.65354259064419</v>
+        <v>220.662316</v>
       </c>
       <c r="I25">
-        <v>0.1359520793785175</v>
+        <v>0.1513094990674513</v>
       </c>
       <c r="J25">
-        <v>0.1359520793785175</v>
+        <v>0.1062309148838167</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N25">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O25">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P25">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q25">
-        <v>1327.606691626026</v>
+        <v>1564.204435851722</v>
       </c>
       <c r="R25">
-        <v>1327.606691626026</v>
+        <v>9385.22661511033</v>
       </c>
       <c r="S25">
-        <v>0.01757051766442766</v>
+        <v>0.01870236852470132</v>
       </c>
       <c r="T25">
-        <v>0.01757051766442766</v>
+        <v>0.01408107296063228</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>93.65354259064419</v>
+        <v>110.331158</v>
       </c>
       <c r="H26">
-        <v>93.65354259064419</v>
+        <v>220.662316</v>
       </c>
       <c r="I26">
-        <v>0.1359520793785175</v>
+        <v>0.1513094990674513</v>
       </c>
       <c r="J26">
-        <v>0.1359520793785175</v>
+        <v>0.1062309148838167</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N26">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O26">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P26">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q26">
-        <v>2173.404309436643</v>
+        <v>2562.908066010656</v>
       </c>
       <c r="R26">
-        <v>2173.404309436643</v>
+        <v>10251.63226404262</v>
       </c>
       <c r="S26">
-        <v>0.02876442176118293</v>
+        <v>0.03064334178247053</v>
       </c>
       <c r="T26">
-        <v>0.02876442176118293</v>
+        <v>0.01538097989484285</v>
       </c>
     </row>
   </sheetData>
